--- a/output_file/June sheet/example.xlsx
+++ b/output_file/June sheet/example.xlsx
@@ -26,39 +26,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>MetalShape</t>
   </si>
   <si>
+    <t>MetalNumber</t>
+  </si>
+  <si>
+    <t>Validity_Check_Value_of_Translation_Error</t>
+  </si>
+  <si>
+    <t>Validity_Check_Value_of_Rotation_Error</t>
+  </si>
+  <si>
+    <t>LC Steel</t>
+  </si>
+  <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>6061 Al</t>
+  </si>
+  <si>
+    <t>416 SS</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>Ti Grade 5</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
     <t>sheet</t>
-  </si>
-  <si>
-    <t>MetalNumber</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Validity_Check_Value_of_Translation_Error</t>
-  </si>
-  <si>
-    <t>Validity_Check_Value_of_Rotation_Error</t>
-  </si>
-  <si>
-    <t>LC Steel</t>
-  </si>
-  <si>
-    <t>304 SS</t>
-  </si>
-  <si>
-    <t>6061 Al</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,21 +399,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1.5459890823990422E-6</v>
@@ -418,72 +424,212 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1.3519567765762057E-5</v>
+        <v>6.9627762128385077E-6</v>
       </c>
       <c r="D3">
-        <v>5.7822102458724715E-5</v>
+        <v>6.0956958699467337E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.1293333127673608E-5</v>
+        <v>3.8761120837528648E-6</v>
       </c>
       <c r="D4">
-        <v>4.9314393651014491E-5</v>
+        <v>2.4410464528341806E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1.2665883893783987E-5</v>
+        <v>6.737042247821481E-6</v>
       </c>
       <c r="D5">
-        <v>6.6009354934866855E-5</v>
+        <v>2.2569920094691914E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3.6387398994145684E-6</v>
+        <v>4.6053454519269281E-6</v>
       </c>
       <c r="D6">
-        <v>2.267682404580917E-5</v>
+        <v>4.0069836989257042E-5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1.9637988763980749E-6</v>
+      </c>
+      <c r="D7">
+        <v>8.8177994831109279E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1.1791438165997862E-5</v>
-      </c>
-      <c r="D7">
-        <v>4.9444623935127681E-5</v>
+      <c r="C8">
+        <v>5.0093775271640976E-7</v>
+      </c>
+      <c r="D8">
+        <v>6.2043459560144227E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1.1764180270163276E-6</v>
+      </c>
+      <c r="D9">
+        <v>9.8327321610156074E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2.0776531428105052E-6</v>
+      </c>
+      <c r="D10">
+        <v>1.9707496771217918E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3.5072702529884472E-6</v>
+      </c>
+      <c r="D11">
+        <v>1.4327881731271386E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3.1165359883408649E-6</v>
+      </c>
+      <c r="D12">
+        <v>3.7015602558869957E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5.1375673733102401E-6</v>
+      </c>
+      <c r="D13">
+        <v>2.9575898396514673E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>3.6446812295075986E-7</v>
+      </c>
+      <c r="D14">
+        <v>1.4685192566197794E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2.1913802358796313E-6</v>
+      </c>
+      <c r="D15">
+        <v>1.4689386105367674E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2.340384168052887E-7</v>
+      </c>
+      <c r="D16">
+        <v>3.5065785209123983E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3.1594882232792449E-6</v>
+      </c>
+      <c r="D17">
+        <v>3.660722105154054E-5</v>
       </c>
     </row>
   </sheetData>

--- a/output_file/June sheet/example.xlsx
+++ b/output_file/June sheet/example.xlsx
@@ -26,45 +26,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>MetalShape</t>
   </si>
   <si>
+    <t>sheet</t>
+  </si>
+  <si>
     <t>MetalNumber</t>
   </si>
   <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>LC Steel</t>
+  </si>
+  <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>6061 Al</t>
+  </si>
+  <si>
     <t>Validity_Check_Value_of_Translation_Error</t>
   </si>
   <si>
     <t>Validity_Check_Value_of_Rotation_Error</t>
   </si>
   <si>
-    <t>LC Steel</t>
-  </si>
-  <si>
-    <t>304 SS</t>
-  </si>
-  <si>
-    <t>6061 Al</t>
-  </si>
-  <si>
-    <t>416 SS</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>Ti Grade 5</t>
-  </si>
-  <si>
     <t>Copper</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>sheet</t>
   </si>
 </sst>
 </file>
@@ -382,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,21 +390,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1.5459890823990422E-6</v>
@@ -424,212 +415,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>6.9627762128385077E-6</v>
+        <v>1.3519567765762057E-5</v>
       </c>
       <c r="D3">
-        <v>6.0956958699467337E-5</v>
+        <v>5.7822102458724715E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.8761120837528648E-6</v>
+        <v>1.1293333127673608E-5</v>
       </c>
       <c r="D4">
-        <v>2.4410464528341806E-5</v>
+        <v>4.9314393651014491E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6.737042247821481E-6</v>
+        <v>1.2665883893783987E-5</v>
       </c>
       <c r="D5">
-        <v>2.2569920094691914E-5</v>
+        <v>6.6009354934866855E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>4.6053454519269281E-6</v>
+        <v>3.6387398994145684E-6</v>
       </c>
       <c r="D6">
-        <v>4.0069836989257042E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1.9637988763980749E-6</v>
-      </c>
-      <c r="D7">
-        <v>8.8177994831109279E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>5.0093775271640976E-7</v>
-      </c>
-      <c r="D8">
-        <v>6.2043459560144227E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1.1764180270163276E-6</v>
-      </c>
-      <c r="D9">
-        <v>9.8327321610156074E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2.0776531428105052E-6</v>
-      </c>
-      <c r="D10">
-        <v>1.9707496771217918E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>3.5072702529884472E-6</v>
-      </c>
-      <c r="D11">
-        <v>1.4327881731271386E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>3.1165359883408649E-6</v>
-      </c>
-      <c r="D12">
-        <v>3.7015602558869957E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>5.1375673733102401E-6</v>
-      </c>
-      <c r="D13">
-        <v>2.9575898396514673E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>3.6446812295075986E-7</v>
-      </c>
-      <c r="D14">
-        <v>1.4685192566197794E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>2.1913802358796313E-6</v>
-      </c>
-      <c r="D15">
-        <v>1.4689386105367674E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>2.340384168052887E-7</v>
-      </c>
-      <c r="D16">
-        <v>3.5065785209123983E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>3.1594882232792449E-6</v>
-      </c>
-      <c r="D17">
-        <v>3.660722105154054E-5</v>
+        <v>2.267682404580917E-5</v>
       </c>
     </row>
   </sheetData>
